--- a/hominfo.xlsx
+++ b/hominfo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR21"/>
+  <dimension ref="A1:BU21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,6 +654,151 @@
           <t>HomeSecondHalfConceedOverZ</t>
         </is>
       </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>HomeConceedOneFirstHSecAOut</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>HomeConceedTwoHSecAOut</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>HomeConceedZeroFirstHSecAOut</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>HomeScoreZeroFirstHSecAOut</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>HomeScoreOneFirstHSecAOut</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>HomeScoreTwoFirstHSecAOut</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>HomeScoreFirstHSecAOut</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfGoalFulltimeOverUnder</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfOverThreeSecOverThree</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfOverThreeSecOverTwo</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfOverThreeSecOverOne</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfOverThreeSecUnderZero</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfOverTwoSecOverZero</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfOverTwoSecOverOne</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfOverTwoSecOverTwo</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfOverTwoSecOverThree</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfOverOneSecOverZero</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfOverOneSecOverOne</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfOverOneSecOverTwo</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfOverOneSecOverThree</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfHomeWinSecHalfLose</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHalfHomeWinSecHalfAwayWD</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHHomeWinSecHAwayScore</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHHomeWinSecHHomeScore3</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHHomeWinSecHHomeScore1</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHHomeWinSecHHomeScore2</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHHomeWinSecHAwayScore1</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHHomeWinSecHAwayScore2</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>FirstHomeWinSecHAwayScore3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -874,6 +1019,151 @@
           <t>10/7</t>
         </is>
       </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>3/0</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>5/5</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>3/1</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>3/0</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>7/6</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>11/2</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>3/0</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>3/0</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>7/2</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>0/7</t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>6/1</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>0/7</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1094,6 +1384,151 @@
           <t>14/4</t>
         </is>
       </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>3/2</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>9/2</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>9/2</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>3/2</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>5/2</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>11/0</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>4/0</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>3/1</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1314,6 +1749,151 @@
           <t>9/9</t>
         </is>
       </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>6/5</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>10/2</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>3/1</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>3/2</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1534,6 +2114,151 @@
           <t>10/7</t>
         </is>
       </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>6/2</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>6/3</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>14/0</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>6/0</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>4/1</t>
+        </is>
+      </c>
+      <c r="BO5" t="inlineStr">
+        <is>
+          <t>4/1</t>
+        </is>
+      </c>
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>3/2</t>
+        </is>
+      </c>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>4/1</t>
+        </is>
+      </c>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1754,6 +2479,151 @@
           <t>13/5</t>
         </is>
       </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>3/1</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>9/4</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>5/1</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>3/1</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>8/4</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>13/1</t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>5/0</t>
+        </is>
+      </c>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>5/0</t>
+        </is>
+      </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>11/2</t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>8/3</t>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>2/9</t>
+        </is>
+      </c>
+      <c r="BQ6" t="inlineStr">
+        <is>
+          <t>9/2</t>
+        </is>
+      </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>5/6</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>8/3</t>
+        </is>
+      </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>2/9</t>
+        </is>
+      </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>1/10</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1974,6 +2844,151 @@
           <t>8/10</t>
         </is>
       </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>7/8</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>6/4</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>2/6</t>
+        </is>
+      </c>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>7/2</t>
+        </is>
+      </c>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BD7" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>5/2</t>
+        </is>
+      </c>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+      <c r="BQ7" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2194,6 +3209,151 @@
           <t>10/8</t>
         </is>
       </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>4/1</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>6/6</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>7/3</t>
+        </is>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>10/1</t>
+        </is>
+      </c>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>6/1</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>0/7</t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>5/0</t>
+        </is>
+      </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t>5/0</t>
+        </is>
+      </c>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>3/2</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2414,6 +3574,151 @@
           <t>8/9</t>
         </is>
       </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>6/3</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>6/5</t>
+        </is>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>11/2</t>
+        </is>
+      </c>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BB9" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BD9" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>3/1</t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>3/1</t>
+        </is>
+      </c>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="BP9" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="BQ9" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2634,6 +3939,151 @@
           <t>7/11</t>
         </is>
       </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>6/7</t>
+        </is>
+      </c>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>13/0</t>
+        </is>
+      </c>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>4/0</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>3/1</t>
+        </is>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>5/0</t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>4/1</t>
+        </is>
+      </c>
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>6/3</t>
+        </is>
+      </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+      <c r="BP10" t="inlineStr">
+        <is>
+          <t>1/7</t>
+        </is>
+      </c>
+      <c r="BQ10" t="inlineStr">
+        <is>
+          <t>5/3</t>
+        </is>
+      </c>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>2/6</t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>2/6</t>
+        </is>
+      </c>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>0/8</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2854,6 +4304,151 @@
           <t>11/7</t>
         </is>
       </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>7/3</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>7/2</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>4/5</t>
+        </is>
+      </c>
+      <c r="AZ11" t="inlineStr">
+        <is>
+          <t>11/4</t>
+        </is>
+      </c>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BK11" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BM11" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>5/2</t>
+        </is>
+      </c>
+      <c r="BO11" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+      <c r="BP11" t="inlineStr">
+        <is>
+          <t>0/7</t>
+        </is>
+      </c>
+      <c r="BQ11" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>1/6</t>
+        </is>
+      </c>
+      <c r="BS11" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+      <c r="BT11" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+      <c r="BU11" t="inlineStr">
+        <is>
+          <t>1/6</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3074,6 +4669,151 @@
           <t>10/8</t>
         </is>
       </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>6/4</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>6/2</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>7/4</t>
+        </is>
+      </c>
+      <c r="AZ12" t="inlineStr">
+        <is>
+          <t>13/2</t>
+        </is>
+      </c>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BB12" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BD12" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>4/2</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>7/5</t>
+        </is>
+      </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>6/2</t>
+        </is>
+      </c>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>0/8</t>
+        </is>
+      </c>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>1/7</t>
+        </is>
+      </c>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>6/2</t>
+        </is>
+      </c>
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+      <c r="BU12" t="inlineStr">
+        <is>
+          <t>1/7</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3294,6 +5034,151 @@
           <t>10/6</t>
         </is>
       </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>7/2</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>4/2</t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>6/4</t>
+        </is>
+      </c>
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t>13/1</t>
+        </is>
+      </c>
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BC13" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BD13" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>3/0</t>
+        </is>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="BI13" t="inlineStr">
+        <is>
+          <t>3/0</t>
+        </is>
+      </c>
+      <c r="BJ13" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="BK13" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="BM13" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>7/2</t>
+        </is>
+      </c>
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t>6/1</t>
+        </is>
+      </c>
+      <c r="BP13" t="inlineStr">
+        <is>
+          <t>1/6</t>
+        </is>
+      </c>
+      <c r="BQ13" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>6/1</t>
+        </is>
+      </c>
+      <c r="BT13" t="inlineStr">
+        <is>
+          <t>1/6</t>
+        </is>
+      </c>
+      <c r="BU13" t="inlineStr">
+        <is>
+          <t>0/7</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3514,6 +5399,151 @@
           <t>11/6</t>
         </is>
       </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>4/1</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>7/4</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>5/4</t>
+        </is>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>5/0</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>6/2</t>
+        </is>
+      </c>
+      <c r="AZ14" t="inlineStr">
+        <is>
+          <t>9/0</t>
+        </is>
+      </c>
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BD14" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="BJ14" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="BK14" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="BM14" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="BN14" t="inlineStr">
+        <is>
+          <t>4/3</t>
+        </is>
+      </c>
+      <c r="BO14" t="inlineStr">
+        <is>
+          <t>4/1</t>
+        </is>
+      </c>
+      <c r="BP14" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="BQ14" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="BS14" t="inlineStr">
+        <is>
+          <t>4/1</t>
+        </is>
+      </c>
+      <c r="BT14" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="BU14" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3734,6 +5764,151 @@
           <t>8/9</t>
         </is>
       </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="AU15" t="inlineStr">
+        <is>
+          <t>5/6</t>
+        </is>
+      </c>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>3/2</t>
+        </is>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>2/5</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>3/2</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>5/7</t>
+        </is>
+      </c>
+      <c r="AZ15" t="inlineStr">
+        <is>
+          <t>13/1</t>
+        </is>
+      </c>
+      <c r="BA15" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BC15" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BD15" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BG15" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>8/1</t>
+        </is>
+      </c>
+      <c r="BJ15" t="inlineStr">
+        <is>
+          <t>5/4</t>
+        </is>
+      </c>
+      <c r="BK15" t="inlineStr">
+        <is>
+          <t>2/7</t>
+        </is>
+      </c>
+      <c r="BL15" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+      <c r="BM15" t="inlineStr">
+        <is>
+          <t>0/8</t>
+        </is>
+      </c>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>8/0</t>
+        </is>
+      </c>
+      <c r="BO15" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="BP15" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+      <c r="BQ15" t="inlineStr">
+        <is>
+          <t>5/3</t>
+        </is>
+      </c>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>5/3</t>
+        </is>
+      </c>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t>4/4</t>
+        </is>
+      </c>
+      <c r="BT15" t="inlineStr">
+        <is>
+          <t>0/8</t>
+        </is>
+      </c>
+      <c r="BU15" t="inlineStr">
+        <is>
+          <t>0/8</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3954,6 +6129,151 @@
           <t>13/4</t>
         </is>
       </c>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>5/1</t>
+        </is>
+      </c>
+      <c r="AU16" t="inlineStr">
+        <is>
+          <t>6/2</t>
+        </is>
+      </c>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>11/1</t>
+        </is>
+      </c>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
+      <c r="AZ16" t="inlineStr">
+        <is>
+          <t>10/2</t>
+        </is>
+      </c>
+      <c r="BA16" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BC16" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BD16" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="BI16" t="inlineStr">
+        <is>
+          <t>4/0</t>
+        </is>
+      </c>
+      <c r="BJ16" t="inlineStr">
+        <is>
+          <t>4/0</t>
+        </is>
+      </c>
+      <c r="BK16" t="inlineStr">
+        <is>
+          <t>3/1</t>
+        </is>
+      </c>
+      <c r="BL16" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="BM16" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="BN16" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="BO16" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="BP16" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="BQ16" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="BS16" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="BT16" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="BU16" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4174,6 +6494,151 @@
           <t>16/1</t>
         </is>
       </c>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>6/0</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>3/0</t>
+        </is>
+      </c>
+      <c r="AU17" t="inlineStr">
+        <is>
+          <t>4/1</t>
+        </is>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>11/0</t>
+        </is>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>3/1</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>4/1</t>
+        </is>
+      </c>
+      <c r="AZ17" t="inlineStr">
+        <is>
+          <t>12/1</t>
+        </is>
+      </c>
+      <c r="BA17" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BC17" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BD17" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BF17" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BG17" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BI17" t="inlineStr">
+        <is>
+          <t>6/0</t>
+        </is>
+      </c>
+      <c r="BJ17" t="inlineStr">
+        <is>
+          <t>5/1</t>
+        </is>
+      </c>
+      <c r="BK17" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="BL17" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+      <c r="BM17" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="BO17" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="BP17" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="BQ17" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="BS17" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="BT17" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="BU17" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4394,6 +6859,151 @@
           <t>4/13</t>
         </is>
       </c>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>0/8</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>1/5</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>2/3</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>3/8</t>
+        </is>
+      </c>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>12/2</t>
+        </is>
+      </c>
+      <c r="BA18" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BB18" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BC18" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BD18" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BF18" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BG18" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BI18" t="inlineStr">
+        <is>
+          <t>6/1</t>
+        </is>
+      </c>
+      <c r="BJ18" t="inlineStr">
+        <is>
+          <t>3/4</t>
+        </is>
+      </c>
+      <c r="BK18" t="inlineStr">
+        <is>
+          <t>1/6</t>
+        </is>
+      </c>
+      <c r="BL18" t="inlineStr">
+        <is>
+          <t>0/7</t>
+        </is>
+      </c>
+      <c r="BM18" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+      <c r="BN18" t="inlineStr">
+        <is>
+          <t>6/0</t>
+        </is>
+      </c>
+      <c r="BO18" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="BP18" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+      <c r="BQ18" t="inlineStr">
+        <is>
+          <t>6/0</t>
+        </is>
+      </c>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="BS18" t="inlineStr">
+        <is>
+          <t>2/4</t>
+        </is>
+      </c>
+      <c r="BT18" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
+      <c r="BU18" t="inlineStr">
+        <is>
+          <t>0/6</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4614,6 +7224,151 @@
           <t>12/5</t>
         </is>
       </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>6/0</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="AU19" t="inlineStr">
+        <is>
+          <t>5/3</t>
+        </is>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>5/2</t>
+        </is>
+      </c>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>7/2</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>7/3</t>
+        </is>
+      </c>
+      <c r="AZ19" t="inlineStr">
+        <is>
+          <t>11/1</t>
+        </is>
+      </c>
+      <c r="BA19" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="BC19" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="BD19" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="BE19" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BF19" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BG19" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BH19" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="BI19" t="inlineStr">
+        <is>
+          <t>4/0</t>
+        </is>
+      </c>
+      <c r="BJ19" t="inlineStr">
+        <is>
+          <t>4/0</t>
+        </is>
+      </c>
+      <c r="BK19" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="BL19" t="inlineStr">
+        <is>
+          <t>0/4</t>
+        </is>
+      </c>
+      <c r="BM19" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="BN19" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
+      <c r="BO19" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="BP19" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="BQ19" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="BS19" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="BT19" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="BU19" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4834,6 +7589,151 @@
           <t>12/5</t>
         </is>
       </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>4/2</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>4/2</t>
+        </is>
+      </c>
+      <c r="AU20" t="inlineStr">
+        <is>
+          <t>4/1</t>
+        </is>
+      </c>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>8/3</t>
+        </is>
+      </c>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>4/1</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>4/2</t>
+        </is>
+      </c>
+      <c r="AZ20" t="inlineStr">
+        <is>
+          <t>12/3</t>
+        </is>
+      </c>
+      <c r="BA20" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BC20" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BD20" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BE20" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BF20" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BG20" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BH20" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="BI20" t="inlineStr">
+        <is>
+          <t>6/2</t>
+        </is>
+      </c>
+      <c r="BJ20" t="inlineStr">
+        <is>
+          <t>5/3</t>
+        </is>
+      </c>
+      <c r="BK20" t="inlineStr">
+        <is>
+          <t>3/5</t>
+        </is>
+      </c>
+      <c r="BL20" t="inlineStr">
+        <is>
+          <t>0/8</t>
+        </is>
+      </c>
+      <c r="BM20" t="inlineStr">
+        <is>
+          <t>0/2</t>
+        </is>
+      </c>
+      <c r="BN20" t="inlineStr">
+        <is>
+          <t>3/1</t>
+        </is>
+      </c>
+      <c r="BO20" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="BP20" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="BQ20" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="BS20" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="BT20" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="BU20" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5052,6 +7952,151 @@
       <c r="AR21" t="inlineStr">
         <is>
           <t>7/10</t>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="AU21" t="inlineStr">
+        <is>
+          <t>6/6</t>
+        </is>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>0/5</t>
+        </is>
+      </c>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>3/2</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>7/5</t>
+        </is>
+      </c>
+      <c r="AZ21" t="inlineStr">
+        <is>
+          <t>12/2</t>
+        </is>
+      </c>
+      <c r="BA21" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BB21" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BC21" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BD21" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="BE21" t="inlineStr">
+        <is>
+          <t>4/0</t>
+        </is>
+      </c>
+      <c r="BF21" t="inlineStr">
+        <is>
+          <t>4/0</t>
+        </is>
+      </c>
+      <c r="BG21" t="inlineStr">
+        <is>
+          <t>3/1</t>
+        </is>
+      </c>
+      <c r="BH21" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="BI21" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="BJ21" t="inlineStr">
+        <is>
+          <t>1/2</t>
+        </is>
+      </c>
+      <c r="BK21" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="BL21" t="inlineStr">
+        <is>
+          <t>0/3</t>
+        </is>
+      </c>
+      <c r="BM21" t="inlineStr">
+        <is>
+          <t>0/9</t>
+        </is>
+      </c>
+      <c r="BN21" t="inlineStr">
+        <is>
+          <t>12/3</t>
+        </is>
+      </c>
+      <c r="BO21" t="inlineStr">
+        <is>
+          <t>7/5</t>
+        </is>
+      </c>
+      <c r="BP21" t="inlineStr">
+        <is>
+          <t>3/9</t>
+        </is>
+      </c>
+      <c r="BQ21" t="inlineStr">
+        <is>
+          <t>8/4</t>
+        </is>
+      </c>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>4/8</t>
+        </is>
+      </c>
+      <c r="BS21" t="inlineStr">
+        <is>
+          <t>7/5</t>
+        </is>
+      </c>
+      <c r="BT21" t="inlineStr">
+        <is>
+          <t>2/10</t>
+        </is>
+      </c>
+      <c r="BU21" t="inlineStr">
+        <is>
+          <t>0/12</t>
         </is>
       </c>
     </row>
